--- a/KMWE/AL_Sup_Wip_repr_model_diffrack_v7.1/tdmPL.xlsx
+++ b/KMWE/AL_Sup_Wip_repr_model_diffrack_v7.1/tdmPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitis\Documents\Version Control\AnyLogic\KMWE\AL_Sup_Wip_repr_model_diffrack_v7.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A51FD25-4286-4C14-81A7-F41735CDDD2F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCC9CE0E-8AE3-468F-89B3-5732889FE16B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
     <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,35 +781,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>42826.51363425926</v>
       </c>
-      <c r="C2">
-        <f>YEAR(B2)</f>
-        <v>2017</v>
-      </c>
-      <c r="D2">
-        <f>MONTH(B2)</f>
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <f>DAY(B2)</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>HOUR(B2)</f>
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <f>MINUTE(B2)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -817,7 +797,7 @@
         <v>42826.566932870373</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -825,7 +805,7 @@
         <v>42828.28707175926</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -833,7 +813,7 @@
         <v>42828.385057870371</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -841,7 +821,7 @@
         <v>42828.466134259259</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -849,7 +829,7 @@
         <v>42828.534143518518</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -857,7 +837,7 @@
         <v>42828.562847222223</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -865,7 +845,7 @@
         <v>42828.562858796293</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -873,7 +853,7 @@
         <v>42828.622800925928</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -881,7 +861,7 @@
         <v>42829.361296296294</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -889,7 +869,7 @@
         <v>42829.362210648149</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -897,7 +877,7 @@
         <v>42829.460347222222</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -905,7 +885,7 @@
         <v>42829.540613425925</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -913,7 +893,7 @@
         <v>42829.540625000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
